--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20202.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20202.xlsx
@@ -1085,7 +1085,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1108,7 +1108,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1131,7 +1131,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1154,7 +1154,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1177,7 +1177,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1200,7 +1200,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
